--- a/out/production/Case/TEST.xlsx
+++ b/out/production/Case/TEST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF4D674-E192-4194-9D56-0CDCE1B67324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA6140E-8976-4875-86CB-7567EDF5E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>To ship</t>
   </si>
@@ -419,16 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="8" max="9" width="30" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="35" max="35" width="20" customWidth="1"/>
   </cols>
@@ -546,6 +551,232 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
